--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,15 +52,12 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
@@ -70,69 +67,60 @@
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>wife</t>
   </si>
   <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
     <t>cheese</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
@@ -145,46 +133,49 @@
     <t>easy</t>
   </si>
   <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>kitchen</t>
+    <t>well</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>hot</t>
+    <t>recommend</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>coffee</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>coffee</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>positive</t>
@@ -545,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2868217054263566</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -656,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -690,13 +681,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8498452012383901</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>549</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>549</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +707,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>544</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>544</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -734,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -742,13 +733,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.7333333333333333</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -760,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -768,13 +759,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7173913043478261</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -786,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -794,13 +785,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -812,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -820,13 +811,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7056277056277056</v>
+        <v>0.6677966101694915</v>
       </c>
       <c r="L10">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="M10">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -838,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -846,13 +837,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.684931506849315</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -864,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -872,13 +863,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6818181818181818</v>
+        <v>0.6457142857142857</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -890,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -898,13 +889,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.676056338028169</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -916,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -924,13 +915,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6338983050847458</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="L14">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -942,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>108</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -950,13 +941,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6211878009630819</v>
+        <v>0.6147672552166934</v>
       </c>
       <c r="L15">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="M15">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -968,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1002,13 +993,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.5942857142857143</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L17">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1020,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1028,13 +1019,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.5833333333333334</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1046,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1054,13 +1045,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.578125</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1072,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1080,13 +1071,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.5735294117647058</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1098,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1106,13 +1097,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.543859649122807</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1124,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1132,13 +1123,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5192307692307693</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L22">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M22">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1150,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1158,13 +1149,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5076923076923077</v>
+        <v>0.46875</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1176,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1184,13 +1175,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5042735042735043</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L24">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1202,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1210,13 +1201,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.4819277108433735</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1228,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1236,13 +1227,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.47</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L26">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="M26">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1254,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>53</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1262,13 +1253,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.4670658682634731</v>
+        <v>0.4</v>
       </c>
       <c r="L27">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1280,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1288,13 +1279,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.4586466165413534</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L28">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="M28">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1306,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>72</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1314,13 +1305,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.3975903614457831</v>
+        <v>0.3308270676691729</v>
       </c>
       <c r="L29">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="M29">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1332,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1340,13 +1331,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.3950617283950617</v>
+        <v>0.3229571984435798</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1358,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>49</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1366,13 +1357,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.3947368421052632</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1384,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>46</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1392,13 +1383,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.3284313725490196</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L32">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="M32">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1410,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>274</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1418,13 +1409,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.3233082706766917</v>
+        <v>0.2346609257265877</v>
       </c>
       <c r="L33">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="M33">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1436,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>90</v>
+        <v>711</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1444,13 +1435,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.3190661478599222</v>
+        <v>0.2302158273381295</v>
       </c>
       <c r="L34">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1462,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>175</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1470,13 +1461,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.2835616438356164</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="L35">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1488,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>523</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1496,13 +1487,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.2411194833153929</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L36">
-        <v>224</v>
+        <v>65</v>
       </c>
       <c r="M36">
-        <v>224</v>
+        <v>65</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1514,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>705</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1522,13 +1513,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.1943573667711599</v>
+        <v>0.1675191815856777</v>
       </c>
       <c r="L37">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="M37">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1540,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>257</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1548,13 +1539,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.1770334928229665</v>
+        <v>0.1615894039735099</v>
       </c>
       <c r="L38">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="M38">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1566,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>172</v>
+        <v>633</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1574,13 +1565,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.1708609271523179</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L39">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="M39">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1592,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>626</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1600,25 +1591,25 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.1649616368286445</v>
+        <v>0.1108108108108108</v>
       </c>
       <c r="L40">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="M40">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>653</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1626,13 +1617,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.1265206812652068</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="L41">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1644,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>359</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1652,13 +1643,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.1218487394957983</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1670,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>209</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1678,13 +1669,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.1134020618556701</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="L43">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M43">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1696,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>258</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1704,25 +1695,25 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.1108108108108108</v>
+        <v>0.081145584725537</v>
       </c>
       <c r="L44">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M44">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N44">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>329</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1730,13 +1721,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.09429824561403509</v>
+        <v>0.05876865671641791</v>
       </c>
       <c r="L45">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="M45">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1748,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>413</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1756,103 +1747,25 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.09318181818181819</v>
+        <v>0.054519368723099</v>
       </c>
       <c r="L46">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M46">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
-      <c r="J47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K47">
-        <v>0.06169296987087518</v>
-      </c>
-      <c r="L47">
-        <v>43</v>
-      </c>
-      <c r="M47">
-        <v>44</v>
-      </c>
-      <c r="N47">
-        <v>0.98</v>
-      </c>
-      <c r="O47">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K48">
-        <v>0.04850746268656717</v>
-      </c>
-      <c r="L48">
-        <v>52</v>
-      </c>
-      <c r="M48">
-        <v>52</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K49">
-        <v>0.02941176470588235</v>
-      </c>
-      <c r="L49">
-        <v>34</v>
-      </c>
-      <c r="M49">
-        <v>35</v>
-      </c>
-      <c r="N49">
-        <v>0.97</v>
-      </c>
-      <c r="O49">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>1122</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
